--- a/Suivi.xlsx
+++ b/Suivi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Documents\02 Semestre\SAE 204\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p2401897\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD19FDF-FC54-4D8E-A00E-432B722A4BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19358CAB-C2A3-4E9A-B619-CA7B58886EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{85A00554-86D1-41DD-923D-0F35474E1954}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Qui</t>
   </si>
@@ -63,13 +63,16 @@
     <t xml:space="preserve">Fonction de calcul des effectifs d'homme et de femme dans chaque secteur d'industrie selon la nomenclature agrégée A6 </t>
   </si>
   <si>
-    <t>Calcul de la moyenne d'age selon la région où habite le salarié</t>
-  </si>
-  <si>
     <t>En regardant dans tous les objets à l'aide du tableau "workers", on peut vérifier la nomenclature agrégée A6 et le sexe du salarié pour pouvoir calculer leur effectif</t>
   </si>
   <si>
-    <t>Une hashmap sert à stocker les effectifs et les sommes, on récupère les ages et les régions à partir d'un tableau d'objet "Person"</t>
+    <t>Calcul de la médiane des salaires en fonction du secteur d'industrie</t>
+  </si>
+  <si>
+    <t>Une hashmap de tableau stocke les effectifs par secteur et par salaire, qui est ensuite convertit en tableau 2D pour calculer la médiane.</t>
+  </si>
+  <si>
+    <t>Bastien FELIX et Jérome TARDIVON</t>
   </si>
 </sst>
 </file>
@@ -439,7 +442,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,15 +492,15 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>

--- a/Suivi.xlsx
+++ b/Suivi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p2401897\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Documents\SAE\SAE S2\SAE 204\Sujet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19358CAB-C2A3-4E9A-B619-CA7B58886EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A32AD6-996F-498D-A30D-B765D982B9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{85A00554-86D1-41DD-923D-0F35474E1954}"/>
+    <workbookView xWindow="7545" yWindow="2235" windowWidth="21600" windowHeight="11385" xr2:uid="{85A00554-86D1-41DD-923D-0F35474E1954}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>Qui</t>
   </si>
@@ -73,6 +73,30 @@
   </si>
   <si>
     <t>Bastien FELIX et Jérome TARDIVON</t>
+  </si>
+  <si>
+    <t>Enzo DERMONT</t>
+  </si>
+  <si>
+    <t>Diagramme à barres empilés</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>Diagramme circulaire</t>
+  </si>
+  <si>
+    <t>Nuage de points</t>
+  </si>
+  <si>
+    <t>Grâce aux valeurs suivantes : la tranche de salaire net et le sexe de l'individu, on a calculer grâce à Python le nombre de personnes par sexe en fonction de la tranche de salaire net, avec ces valeurs, on peut construire un diagramme à barres empilées de fréquences pour voir la proportion des personnes.</t>
+  </si>
+  <si>
+    <t>Avec les résultats trouvés grâce à Python qui sont les salaires medians des différentes nomenclatures en 2016, on peut insérer un diagramme circulaire avec les différents salaires medians.</t>
+  </si>
+  <si>
+    <t>Avec les résultats trouvés grâce à Python qui sont les salaires medians en fonction de l'âge en 2016, on peut insérer un diagramme circulaire avec les différents salaires medians. Au début, le diagramme a été commencé sur Geogebra, mais les points ne pouvaient pas être transformé en croix.</t>
   </si>
 </sst>
 </file>
@@ -438,11 +462,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4721B02-36BD-49B4-8264-9B9F1545E11C}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D11:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,6 +533,48 @@
         <v>11</v>
       </c>
     </row>
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Suivi.xlsx
+++ b/Suivi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Documents\SAE\SAE S2\SAE 204\Sujet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\iutbg-smbetu.univ-lyon1.fr\homes\Documents\1S2\SAE\SAE204\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A32AD6-996F-498D-A30D-B765D982B9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8686E9B-C923-494F-804A-3E637CFE67CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7545" yWindow="2235" windowWidth="21600" windowHeight="11385" xr2:uid="{85A00554-86D1-41DD-923D-0F35474E1954}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{85A00554-86D1-41DD-923D-0F35474E1954}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>Qui</t>
   </si>
@@ -97,6 +97,57 @@
   </si>
   <si>
     <t>Avec les résultats trouvés grâce à Python qui sont les salaires medians en fonction de l'âge en 2016, on peut insérer un diagramme circulaire avec les différents salaires medians. Au début, le diagramme a été commencé sur Geogebra, mais les points ne pouvaient pas être transformé en croix.</t>
+  </si>
+  <si>
+    <t>Jérome TARDIVON</t>
+  </si>
+  <si>
+    <t>Fonction Python salaryManWoman(workers) qui calcule la répartition des hommes et des femmes dans les différentes tranches de salaire</t>
+  </si>
+  <si>
+    <t>Fonction Python salaryOldYoung(workers) qui, de façon similaire à salaryManWoman(), calcule la répartition des personnes de différents ages dans les différentes trnaches de salaires</t>
+  </si>
+  <si>
+    <t>J'ai utilisé deux tableaux  pour stocker le nombre d'hommes et de femme présent dans une certaine tranche de salaire (les indices correspondes au code de la tranche)</t>
+  </si>
+  <si>
+    <t>J'ai utilisé un tableau à deux dimentions pour stocker mes valeurs. La dimention y correspond à l'âge et la dimention x correspond à la tranche de salaire, la valeur correspond au nombre de personne agée de y années présents dans la tranche de salaire x (les indices coresspondent à l'age et à la tranche). J'ai choisis de ne prendre en compte que les salariés entre 16 et 99 ans et d'ignorer également ceux ayant un age non renseigné à cause de données aberrantes (salariés en CDI de 0, 1 ou meme 127 ans) les valeurs'#' sont présentes pour conserver l'égualitée entre la valeure des indices et celle des ages.</t>
+  </si>
+  <si>
+    <t>Fonction Python medSalaryOldYoung(repA,varmodfilename) qui calcule le salaire médian pour chaque age (de 16 à 99)</t>
+  </si>
+  <si>
+    <t>Ici, le fichier varmod est utilisé pour une autre fonction appelé dans medSalaryOldYoung() et le paramètre repA est un tableau à deux dimention renvoyé par la fonction salaryOldYoung ci-dessus. Cette fonction calcule d'abord l'effectif cumulé croissant puis les positions des médianes et enfin les médianes en elle mêmes</t>
+  </si>
+  <si>
+    <t>Fonction Python getSalariesMinMax(varmodfilename) qui convertie les entrées du fichier varmod pour les tranches de salaire en tableaux à 3 valeurs (minimum de la tranche, moyenne de la tranche, maximum de la tranche)</t>
+  </si>
+  <si>
+    <t>Je récupère tout d'abord le nombre de tranches pour la taille du tableau (je n'append pas au cas où les tranches ne serais pas entrées dans l'ordre dans le csv).  J'initialise ensuite à None toutes le valeurs puis je les récupères depuis la collone LIB_MOD du fichier varmod (j'utilise la colonne COD_MOD comme indice au cas où les tranches ne serais pas entrées dans l'ordre dans le csv). je traite ensuite les différents cas en splitants les lignes et en récupérant les informations de différentes manières.</t>
+  </si>
+  <si>
+    <t>Fonction Python medSalaryNomenclature(repA,varmodfilename) meme chose que la fonction medSalaryOldYoung() sans mettre les 16 premières lignes à '#'</t>
+  </si>
+  <si>
+    <t>idem que medSalaryOldYoung() sauf que repA est un tableau à deux dimention quelconque (ici on utilise celui renvoyé par effectifSalaireSelonSecteur())</t>
+  </si>
+  <si>
+    <t>Jérôme TARDIVON</t>
+  </si>
+  <si>
+    <t>Fonction Python SalarySexDifference(workers,varmodfilename) renvoie la différence entre les moyennes de salaire des hommes et des femmes dans une année</t>
+  </si>
+  <si>
+    <t>Fait la différence (calcule les deux moyennes auparavent)</t>
+  </si>
+  <si>
+    <t>Diagramme à bandes doubles</t>
+  </si>
+  <si>
+    <t>Canva</t>
+  </si>
+  <si>
+    <t>Avec les valeurs du programmes qui permettait de calculer le nombre de personnes en fonctio du secteur, on a pu créer un diagramme à bandes doubles.</t>
   </si>
 </sst>
 </file>
@@ -462,11 +513,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4721B02-36BD-49B4-8264-9B9F1545E11C}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D11:D12"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,6 +626,104 @@
         <v>20</v>
       </c>
     </row>
+    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
